--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12074_SmartRules_List_Collect.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12074_SmartRules_List_Collect.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\demo11702\openl-demo\user-workspace4\DEFAULT\oldProjectList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\demoEPBDS-12074\openl-demo\user-workspace\DEFAULT\EPBDS-12074_SmartRules_List_Collect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930F7C8-328D-40B8-918B-347D2608A6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806DFBF6-7C15-4E0A-B38D-1440BEBF471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1170" windowWidth="28635" windowHeight="14430" xr2:uid="{98A180AE-C8C3-4643-A3EE-7F0069AD334D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{98A180AE-C8C3-4643-A3EE-7F0069AD334D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Datatype SomeBean</t>
   </si>
@@ -86,24 +86,50 @@
     <t>v2</t>
   </si>
   <si>
-    <t>SmartRules Collect  as CustomDatatype List mySmart(String value)</t>
-  </si>
-  <si>
     <t>SmartRules Collect  CustomDatatype[] mySmartArr(String value)</t>
   </si>
   <si>
     <t>SmartRules Collect  as CustomDatatype List mySmartList(String value)</t>
+  </si>
+  <si>
+    <t>//Tests</t>
+  </si>
+  <si>
+    <t>Test mySmartList mySmartListTest</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>_res_[0]</t>
+  </si>
+  <si>
+    <t>_res_[1]</t>
+  </si>
+  <si>
+    <t>_res_[2]</t>
+  </si>
+  <si>
+    <t>Data CustomDatatype CustomDatatypeData</t>
+  </si>
+  <si>
+    <t>_PK_</t>
+  </si>
+  <si>
+    <t>&gt;CustomDatatypeData</t>
+  </si>
+  <si>
+    <t>Test mySmartArr mySmartArrTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -118,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -126,15 +152,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -449,440 +491,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FFF425A-ED32-45BC-9EA9-6100723BCA80}">
-  <dimension ref="B30:H71"/>
+  <dimension ref="B3:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="98.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="B69:B71"/>
+  <mergeCells count="9">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B29:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
